--- a/core-image-minimal/core-image-minimal.xlsx
+++ b/core-image-minimal/core-image-minimal.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="2356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="2384">
   <si>
     <t>MACHINE=am335x-evm bitbake core-image-minimal</t>
     <phoneticPr fontId="1"/>
@@ -6196,10 +6196,6 @@
   </si>
   <si>
     <t>// attr</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>compiled but not included in rootfs</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -7269,15 +7265,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>udev</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VIRTUAL-RUNTIME_update-alternatives</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>update-alternatives-opkg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -7322,14 +7310,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>busybox</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>netbase</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>// shadow RPROVIDES shadow-base</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -7380,6 +7360,139 @@
   </si>
   <si>
     <t>// MACHINE=am335x-evm oe-pkgdata-util read-value RRECOMMENDS packagegroup-core-boot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>busybox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>netbase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>systemd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>systemd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>udev</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>udev</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>base-passwd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oe-core/meta/recipes-core/base-passwd/base-passwd_3.5.29.bb
+compiled but not included in rootfs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEPENDS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>virtual/arm-oe-linux-gnueabi-compilerlibs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>virtual/libc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kern-tools-native</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>virtual/crypt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>virtual/arm-oe-linux-gnueabi-gcc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// gcc-cross-arm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// gcc-runtime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// none</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// libxcrypt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>netbase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shadow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>opkg-utils</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>linux-ti-staging</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>libxcrypt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RDEPENDS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inherit cml1 systemd update-rc.d ptest？？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shadow-securetty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>base-passwd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>util-linux-sulogin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>glibc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update-alternatives-opkg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// opkg-utils RPROVIDES update-alternatives-opkg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// util-linux RPROVIDES util-linux-sulogin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shadow-base</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7607,13 +7720,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>87919</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>7327</xdr:rowOff>
+      <xdr:rowOff>7328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>21978</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>21982</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>153866</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7622,8 +7735,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2498477" y="681404"/>
-          <a:ext cx="6477001" cy="1868366"/>
+          <a:off x="2498477" y="681405"/>
+          <a:ext cx="6477001" cy="2337288"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7769,6 +7882,266 @@
             </a:rPr>
             <a:t>}</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="arn-CL" altLang="ja-JP" sz="1100"/>
+            <a:t>MACHINE=am335x-evm oe-pkgdata-util read-value RDEPENDS packagegroup-core-boot</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>446941</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>36632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>402979</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>65940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5722326" y="20258940"/>
+          <a:ext cx="6154615" cy="1545981"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="arn-CL" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MACHINE=am335x-evm oe-pkgdata-util read-value RDEPENDS busybox</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="arn-CL" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="arn-CL" altLang="ja-JP"/>
+            <a:t>python() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="arn-CL" altLang="ja-JP" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="arn-CL" altLang="ja-JP"/>
+            <a:t>gcc_provider = d.getVar('PREFERRED_PROVIDER_virtual/arm-oe-linux-gnueabi-gcc') </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="arn-CL" altLang="ja-JP" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="arn-CL" altLang="ja-JP"/>
+            <a:t>bb.note(f"The provider for virtual/arm-oe-linux-gnueabi-gcc is: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="arn-CL" altLang="ja-JP"/>
+            <a:t>gcc_provider}") </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="arn-CL" altLang="ja-JP"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -8119,13 +8492,13 @@
   <sheetData>
     <row r="8" spans="2:4">
       <c r="B8" s="7" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>2048</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>2049</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>2050</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -8135,240 +8508,240 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="12" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="11" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>2056</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>2057</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="11" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>2058</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>2059</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="81">
       <c r="B13" s="11" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="11" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="7" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="7" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="11" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="7" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>2066</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>2067</v>
-      </c>
       <c r="D18" s="7" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="7" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>2068</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>2069</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="7" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>2070</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>2071</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="11" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>2095</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>2096</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="7" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>2073</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>2074</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="7" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>2075</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>2076</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="7" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>2077</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>2078</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="7" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>2079</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>2080</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="7" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>2081</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>2082</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="11" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="7" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="7" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="7" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="11" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>2087</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>2088</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="7" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="7" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="7" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="7" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -8385,90 +8758,90 @@
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C49" t="s">
         <v>2310</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2311</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C50" t="s">
         <v>2315</v>
-      </c>
-      <c r="C50" t="s">
-        <v>2316</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="108">
       <c r="B51" s="15" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C51" s="14" t="s">
         <v>2317</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>2318</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="27">
       <c r="B52" s="5" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>2319</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>2320</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="C53" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C54" t="s">
         <v>2324</v>
-      </c>
-      <c r="C54" t="s">
-        <v>2325</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C55" t="s">
         <v>2326</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2327</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="C56" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="27">
       <c r="B57" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C57" s="14" t="s">
         <v>2332</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>2335</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
-        <v>2348</v>
+        <v>2343</v>
       </c>
       <c r="C60" t="s">
-        <v>2349</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="61" spans="2:3" ht="27">
       <c r="B61" t="s">
-        <v>2350</v>
+        <v>2345</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>2351</v>
+        <v>2346</v>
       </c>
     </row>
   </sheetData>
@@ -8482,8 +8855,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B3:F227"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D106" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView showGridLines="0" topLeftCell="B148" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C165" sqref="B3:F227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8736,7 +9109,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>200</v>
@@ -8745,7 +9118,7 @@
         <v>200</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="21" spans="2:6" hidden="1">
@@ -8948,7 +9321,7 @@
         <v>200</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="36" spans="2:6" hidden="1">
@@ -9324,7 +9697,7 @@
         <v>61</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>200</v>
@@ -9431,8 +9804,8 @@
       <c r="B72" s="3">
         <v>69</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>2098</v>
+      <c r="C72" s="9" t="s">
+        <v>2097</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>200</v>
@@ -9441,7 +9814,7 @@
         <v>196</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="73" spans="2:6" hidden="1">
@@ -9644,7 +10017,7 @@
         <v>85</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>200</v>
@@ -9653,7 +10026,7 @@
         <v>200</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="89" spans="2:6">
@@ -9661,7 +10034,7 @@
         <v>86</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>200</v>
@@ -9670,7 +10043,7 @@
         <v>196</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="90" spans="2:6" hidden="1">
@@ -9795,7 +10168,7 @@
         <v>96</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>200</v>
@@ -9804,7 +10177,7 @@
         <v>200</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="54">
@@ -9812,7 +10185,7 @@
         <v>97</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>200</v>
@@ -9821,7 +10194,7 @@
         <v>200</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="101" spans="2:6" ht="40.5">
@@ -9829,7 +10202,7 @@
         <v>98</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>200</v>
@@ -9838,7 +10211,7 @@
         <v>200</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="102" spans="2:6">
@@ -9846,7 +10219,7 @@
         <v>99</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>200</v>
@@ -9855,7 +10228,7 @@
         <v>196</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="40.5">
@@ -9863,7 +10236,7 @@
         <v>100</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>200</v>
@@ -9872,7 +10245,7 @@
         <v>200</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="104" spans="2:6" ht="40.5">
@@ -9880,7 +10253,7 @@
         <v>101</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>200</v>
@@ -9889,7 +10262,7 @@
         <v>200</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="105" spans="2:6" ht="40.5">
@@ -9897,7 +10270,7 @@
         <v>102</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>200</v>
@@ -9906,7 +10279,7 @@
         <v>200</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="106" spans="2:6">
@@ -9923,7 +10296,7 @@
         <v>196</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="107" spans="2:6">
@@ -9931,7 +10304,7 @@
         <v>104</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>200</v>
@@ -9940,15 +10313,15 @@
         <v>196</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" ht="40.5">
       <c r="B108" s="3">
         <v>105</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>200</v>
@@ -9956,8 +10329,8 @@
       <c r="E108" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="F108" s="7" t="s">
-        <v>2035</v>
+      <c r="F108" s="8" t="s">
+        <v>2358</v>
       </c>
     </row>
     <row r="109" spans="2:6" ht="40.5">
@@ -9965,7 +10338,7 @@
         <v>106</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>200</v>
@@ -9974,7 +10347,7 @@
         <v>200</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="110" spans="2:6" ht="40.5">
@@ -9982,7 +10355,7 @@
         <v>107</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>200</v>
@@ -9991,7 +10364,7 @@
         <v>210</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="111" spans="2:6" hidden="1">
@@ -10142,7 +10515,7 @@
         <v>119</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>200</v>
@@ -10480,7 +10853,7 @@
         <v>145</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>200</v>
@@ -10496,7 +10869,7 @@
       <c r="B149" s="3">
         <v>146</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C149" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D149" s="3" t="s">
@@ -10562,7 +10935,7 @@
         <v>151</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>200</v>
@@ -10617,7 +10990,7 @@
       <c r="B158" s="3">
         <v>155</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C158" s="9" t="s">
         <v>125</v>
       </c>
       <c r="D158" s="3" t="s">
@@ -10695,7 +11068,7 @@
       <c r="B164" s="3">
         <v>161</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="C164" s="9" t="s">
         <v>131</v>
       </c>
       <c r="D164" s="3" t="s">
@@ -10722,7 +11095,7 @@
         <v>163</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>200</v>
@@ -11541,174 +11914,314 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B19:E64"/>
+  <dimension ref="B29:E148"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="3" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="19" spans="2:5">
-      <c r="B19" s="10" t="s">
+    <row r="29" spans="2:3">
+      <c r="B29" s="10" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="2:5" s="13" customFormat="1"/>
-    <row r="21" spans="2:5">
-      <c r="C21" s="10" t="s">
+    <row r="30" spans="2:3" s="13" customFormat="1"/>
+    <row r="31" spans="2:3">
+      <c r="C31" s="10" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="C32" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="C38" s="10" t="s">
         <v>2312</v>
       </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="C22" t="s">
-        <v>2302</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="E38" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="C39" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="C40" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="C41" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="C42" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="C43" t="s">
+        <v>2320</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="C44" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="C45" t="s">
+        <v>2355</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="C46" t="s">
+        <v>2328</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="C47" t="s">
+        <v>2330</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="C48" s="14" t="s">
+        <v>2331</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5">
+      <c r="E49" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5">
+      <c r="E50" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5">
+      <c r="E56" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5">
+      <c r="C57" s="10" t="s">
+        <v>2340</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5">
+      <c r="C58" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5">
+      <c r="C59" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5">
+      <c r="C60" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5">
+      <c r="C61" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5">
+      <c r="C62" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" s="1" customFormat="1"/>
+    <row r="71" spans="2:2">
+      <c r="B71" s="10" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="10" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="10" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="C83" s="10" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="C84" t="s">
+        <v>2364</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="C85" t="s">
+        <v>2360</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="C86" t="s">
+        <v>2361</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="C87" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="C88" t="s">
+        <v>2363</v>
+      </c>
+      <c r="E88" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="C91" s="10" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="C92" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="C93" t="s">
+        <v>2380</v>
+      </c>
+      <c r="E93" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="C94" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="10" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" s="10" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="C106" s="10" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="C107" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="C108" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="C109" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E109" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="C110" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" t="s">
         <v>2354</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
-      <c r="C28" s="10" t="s">
-        <v>2313</v>
-      </c>
-      <c r="E28" t="s">
-        <v>2338</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="C29" t="s">
-        <v>2314</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="C30" t="s">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="C31" t="s">
-        <v>2341</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="C32" t="s">
-        <v>2342</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="C33" t="s">
-        <v>2321</v>
-      </c>
-      <c r="E33" t="s">
-        <v>2343</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5">
-      <c r="C34" t="s">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5">
-      <c r="C35" t="s">
-        <v>2328</v>
-      </c>
-      <c r="E35" t="s">
-        <v>2163</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5">
-      <c r="C36" t="s">
-        <v>2331</v>
-      </c>
-      <c r="E36" t="s">
-        <v>2344</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5">
-      <c r="C37" t="s">
-        <v>2333</v>
-      </c>
-      <c r="E37" t="s">
-        <v>2336</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5">
-      <c r="C38" s="14" t="s">
-        <v>2334</v>
-      </c>
-      <c r="E38" t="s">
-        <v>2337</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5">
-      <c r="E39" t="s">
-        <v>2339</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5">
-      <c r="E40" t="s">
-        <v>2340</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5">
-      <c r="E46" t="s">
-        <v>2355</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5">
-      <c r="C47" s="10" t="s">
-        <v>2345</v>
-      </c>
-      <c r="E47" t="s">
-        <v>2346</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5">
-      <c r="C48" t="s">
-        <v>2347</v>
-      </c>
-      <c r="E48" t="s">
-        <v>2352</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="C49" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="C50" t="s">
-        <v>2107</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="C51" t="s">
-        <v>2119</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="C52" t="s">
-        <v>2353</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" s="1" customFormat="1"/>
-    <row r="61" spans="2:3">
-      <c r="B61" s="10" t="s">
-        <v>2314</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="10" t="s">
-        <v>2245</v>
+    <row r="118" spans="2:2">
+      <c r="B118" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" s="1" customFormat="1"/>
+    <row r="141" spans="2:2">
+      <c r="B141" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" t="s">
+        <v>2379</v>
       </c>
     </row>
   </sheetData>
@@ -11722,7 +12235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:I1994"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A1384" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2030" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B838" sqref="B838"/>
     </sheetView>
   </sheetViews>
@@ -11735,239 +12248,239 @@
   <sheetData>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="5" spans="2:6" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C5" s="10" t="s">
+        <v>2131</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>2132</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>2133</v>
       </c>
     </row>
     <row r="6" spans="2:6" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C6" s="10" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="7" spans="2:6" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C7" s="10" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="8" spans="2:6" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C8" s="10" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="9" spans="2:6" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C9" s="10" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="10" spans="2:6" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C10" s="10" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="11" spans="2:6" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C11" s="10" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="12" spans="2:6" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C12" s="10" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="13" spans="2:6" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C13" s="10" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="14" spans="2:6" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C14" s="10" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="15" spans="2:6" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C15" s="10" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="16" spans="2:6" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C16" s="10" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="17" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C17" s="10" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="18" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C18" s="10" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="19" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C19" s="10" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="20" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C20" s="10" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="21" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C21" s="10" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="22" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C22" s="10" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="23" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C23" s="10" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="24" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C24" s="10" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="25" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C25" s="10" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="26" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C26" s="10" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="27" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C27" s="10" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="28" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C28" s="10" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="29" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C29" s="10" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="30" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C30" s="10" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="31" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C31" s="10" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="32" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C32" s="10" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="33" spans="2:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C33" s="10" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="34" spans="2:7" hidden="1" outlineLevel="1">
@@ -11977,26 +12490,26 @@
     </row>
     <row r="35" spans="2:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C35" s="10" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="36" spans="2:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C36" s="10" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="37" spans="2:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C37" s="10" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="38" spans="2:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
@@ -12004,15 +12517,15 @@
         <v>224</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="39" spans="2:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C39" s="10" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="40" spans="2:7" hidden="1" outlineLevel="1">
@@ -12027,34 +12540,34 @@
     </row>
     <row r="42" spans="2:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C42" s="10" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="43" spans="2:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C43" s="10" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="44" spans="2:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C44" s="10" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="45" spans="2:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C45" s="10" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="46" spans="2:7" hidden="1" outlineLevel="1">
@@ -12064,10 +12577,10 @@
     </row>
     <row r="47" spans="2:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C47" s="10" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="48" spans="2:7" hidden="1" outlineLevel="1">
@@ -12077,306 +12590,306 @@
     </row>
     <row r="49" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C49" s="10" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="50" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C50" s="10" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="51" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C51" s="10" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="52" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C52" s="10" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="53" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C53" s="10" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="54" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C54" s="10" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="55" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C55" s="10" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="56" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C56" s="10" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="57" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C57" s="10" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="58" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C58" s="10" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="59" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C59" s="10" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="60" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C60" s="10" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="61" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C61" s="10" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="62" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C62" s="10" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="63" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C63" s="10" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="64" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C64" s="10" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="65" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C65" s="10" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="66" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C66" s="10" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="67" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C67" s="10" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="68" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C68" s="10" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="69" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C69" s="10" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="70" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C70" s="10" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="71" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C71" s="10" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="72" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C72" s="10" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="73" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C73" s="10" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="74" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C74" s="10" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="75" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C75" s="10" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="76" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C76" s="10" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="77" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C77" s="10" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="78" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C78" s="10" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="79" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C79" s="10" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="80" spans="3:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C80" s="10" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="81" spans="2:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C81" s="10" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="82" spans="2:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C82" s="10" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="83" spans="2:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C83" s="10" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="84" spans="2:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C84" s="10" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="85" spans="2:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C85" s="10" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="86" spans="2:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C86" s="10" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="87" spans="2:7" hidden="1" outlineLevel="1">
@@ -12391,55 +12904,55 @@
     </row>
     <row r="89" spans="2:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C89" s="10" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="90" spans="2:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C90" s="10" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="91" spans="2:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C91" s="10" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="92" spans="2:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C92" s="10" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="93" spans="2:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C93" s="10" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="94" spans="2:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C94" s="10" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="95" spans="2:7" collapsed="1">
       <c r="B95" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="96" spans="2:7" outlineLevel="1">
@@ -12649,28 +13162,28 @@
     </row>
     <row r="137" spans="2:6">
       <c r="B137" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="138" spans="2:6">
       <c r="B138" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="139" spans="2:6" s="10" customFormat="1" outlineLevel="1">
       <c r="C139" s="10" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="140" spans="2:6" s="10" customFormat="1" outlineLevel="1">
       <c r="C140" s="10" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="141" spans="2:6" outlineLevel="1">
@@ -12690,15 +13203,15 @@
     </row>
     <row r="144" spans="2:6" outlineLevel="1">
       <c r="C144" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="145" spans="2:6" s="10" customFormat="1" outlineLevel="1">
       <c r="D145" s="10" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="146" spans="2:6" outlineLevel="1">
@@ -12716,7 +13229,7 @@
         <v>277</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="149" spans="2:6" outlineLevel="1">
@@ -12731,10 +13244,10 @@
     </row>
     <row r="151" spans="2:6" s="10" customFormat="1" outlineLevel="1">
       <c r="C151" s="10" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="152" spans="2:6" outlineLevel="1">
@@ -12769,10 +13282,10 @@
     </row>
     <row r="158" spans="2:6" s="10" customFormat="1" outlineLevel="1">
       <c r="C158" s="10" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="F158" s="10" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="159" spans="2:6" outlineLevel="1">
@@ -12800,7 +13313,7 @@
         <v>290</v>
       </c>
       <c r="F163" s="10" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="164" spans="2:6" outlineLevel="1">
@@ -12848,7 +13361,7 @@
         <v>299</v>
       </c>
       <c r="F172" s="10" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="173" spans="2:6" s="10" customFormat="1" outlineLevel="1">
@@ -12856,7 +13369,7 @@
         <v>300</v>
       </c>
       <c r="F173" s="10" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="174" spans="2:6" s="10" customFormat="1" outlineLevel="1">
@@ -12864,7 +13377,7 @@
         <v>301</v>
       </c>
       <c r="F174" s="10" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="175" spans="2:6" outlineLevel="1">
@@ -12897,7 +13410,7 @@
         <v>307</v>
       </c>
       <c r="G180" s="10" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="181" spans="2:7" s="10" customFormat="1" outlineLevel="1">
@@ -12905,7 +13418,7 @@
         <v>308</v>
       </c>
       <c r="G181" s="10" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="182" spans="2:7" s="10" customFormat="1" outlineLevel="1">
@@ -12913,7 +13426,7 @@
         <v>309</v>
       </c>
       <c r="G182" s="10" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="183" spans="2:7" outlineLevel="1">
@@ -12926,7 +13439,7 @@
         <v>311</v>
       </c>
       <c r="G184" s="10" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="185" spans="2:7" s="10" customFormat="1" outlineLevel="1">
@@ -12934,7 +13447,7 @@
         <v>312</v>
       </c>
       <c r="G185" s="10" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="186" spans="2:7" outlineLevel="1">
@@ -12964,10 +13477,10 @@
     </row>
     <row r="191" spans="2:7" s="10" customFormat="1" outlineLevel="1">
       <c r="C191" s="10" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="E191" s="10" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="192" spans="2:7" outlineLevel="1">
@@ -12982,10 +13495,10 @@
     </row>
     <row r="194" spans="2:5" s="10" customFormat="1" outlineLevel="1">
       <c r="C194" s="10" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="E194" s="10" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="195" spans="2:5" outlineLevel="1">
@@ -13050,10 +13563,10 @@
     </row>
     <row r="207" spans="2:5" s="10" customFormat="1" outlineLevel="1">
       <c r="C207" s="10" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="E207" s="10" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="208" spans="2:5" outlineLevel="1">
@@ -13076,7 +13589,7 @@
         <v>335</v>
       </c>
       <c r="F211" s="10" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="212" spans="2:6" s="10" customFormat="1" outlineLevel="1">
@@ -13084,7 +13597,7 @@
         <v>336</v>
       </c>
       <c r="F212" s="10" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="213" spans="2:6" outlineLevel="1">
@@ -13094,10 +13607,10 @@
     </row>
     <row r="214" spans="2:6" s="10" customFormat="1" outlineLevel="1">
       <c r="C214" s="10" t="s">
+        <v>2289</v>
+      </c>
+      <c r="E214" s="10" t="s">
         <v>2290</v>
-      </c>
-      <c r="E214" s="10" t="s">
-        <v>2291</v>
       </c>
     </row>
     <row r="215" spans="2:6" outlineLevel="1">
@@ -13462,15 +13975,15 @@
     </row>
     <row r="287" spans="2:5" outlineLevel="1">
       <c r="C287" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="288" spans="2:5" s="10" customFormat="1" outlineLevel="1">
       <c r="D288" s="10" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="E288" s="10" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="289" spans="2:7" outlineLevel="1">
@@ -13495,17 +14008,17 @@
     </row>
     <row r="293" spans="2:7">
       <c r="B293" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="294" spans="2:7">
       <c r="C294" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="295" spans="2:7">
       <c r="B295" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="296" spans="2:7" outlineLevel="1">
@@ -13533,7 +14046,7 @@
         <v>417</v>
       </c>
       <c r="G300" s="10" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="301" spans="2:7" s="10" customFormat="1" outlineLevel="1">
@@ -13541,7 +14054,7 @@
         <v>418</v>
       </c>
       <c r="G301" s="10" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="302" spans="2:7" s="10" customFormat="1" outlineLevel="1">
@@ -13549,7 +14062,7 @@
         <v>2029</v>
       </c>
       <c r="G302" s="10" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="303" spans="2:7" s="10" customFormat="1" outlineLevel="1">
@@ -13557,7 +14070,7 @@
         <v>419</v>
       </c>
       <c r="G303" s="10" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="304" spans="2:7" outlineLevel="1">
@@ -13570,7 +14083,7 @@
         <v>421</v>
       </c>
       <c r="G305" s="10" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="306" spans="2:7" s="10" customFormat="1" outlineLevel="1">
@@ -13578,7 +14091,7 @@
         <v>422</v>
       </c>
       <c r="G306" s="10" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="307" spans="2:7" s="10" customFormat="1" outlineLevel="1">
@@ -13586,7 +14099,7 @@
         <v>423</v>
       </c>
       <c r="G307" s="10" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="308" spans="2:7" s="10" customFormat="1" outlineLevel="1">
@@ -13594,7 +14107,7 @@
         <v>424</v>
       </c>
       <c r="G308" s="10" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="309" spans="2:7" s="10" customFormat="1" outlineLevel="1">
@@ -13602,7 +14115,7 @@
         <v>425</v>
       </c>
       <c r="G309" s="10" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="310" spans="2:7" s="10" customFormat="1" outlineLevel="1">
@@ -13610,7 +14123,7 @@
         <v>426</v>
       </c>
       <c r="G310" s="10" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="311" spans="2:7" outlineLevel="1">
@@ -13623,7 +14136,7 @@
         <v>428</v>
       </c>
       <c r="G312" s="10" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="313" spans="2:7" outlineLevel="1">
@@ -13641,7 +14154,7 @@
         <v>431</v>
       </c>
       <c r="G315" s="10" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="316" spans="2:7" outlineLevel="1">
@@ -13669,7 +14182,7 @@
         <v>436</v>
       </c>
       <c r="G320" s="10" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="321" spans="2:7" s="10" customFormat="1" outlineLevel="1">
@@ -13677,7 +14190,7 @@
         <v>437</v>
       </c>
       <c r="G321" s="10" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="322" spans="2:7" outlineLevel="1">
@@ -13715,7 +14228,7 @@
         <v>444</v>
       </c>
       <c r="G328" s="10" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="329" spans="2:7" s="10" customFormat="1" outlineLevel="1">
@@ -13723,7 +14236,7 @@
         <v>445</v>
       </c>
       <c r="G329" s="10" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="330" spans="2:7" s="10" customFormat="1" outlineLevel="1">
@@ -13731,7 +14244,7 @@
         <v>446</v>
       </c>
       <c r="G330" s="10" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="331" spans="2:7" s="10" customFormat="1" outlineLevel="1">
@@ -13739,7 +14252,7 @@
         <v>447</v>
       </c>
       <c r="G331" s="10" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="332" spans="2:7" s="10" customFormat="1" outlineLevel="1">
@@ -13747,7 +14260,7 @@
         <v>448</v>
       </c>
       <c r="G332" s="10" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="333" spans="2:7" outlineLevel="1">
@@ -13787,10 +14300,10 @@
     </row>
     <row r="340" spans="2:7" s="10" customFormat="1" outlineLevel="1">
       <c r="B340" s="10" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="G340" s="10" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="341" spans="2:7" s="10" customFormat="1" outlineLevel="1">
@@ -13798,7 +14311,7 @@
         <v>456</v>
       </c>
       <c r="G341" s="10" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="342" spans="2:7" s="10" customFormat="1" outlineLevel="1">
@@ -13806,7 +14319,7 @@
         <v>457</v>
       </c>
       <c r="G342" s="10" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="343" spans="2:7" outlineLevel="1">
@@ -13824,7 +14337,7 @@
         <v>460</v>
       </c>
       <c r="G345" s="10" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="346" spans="2:7" s="10" customFormat="1" outlineLevel="1">
@@ -13832,7 +14345,7 @@
         <v>461</v>
       </c>
       <c r="G346" s="10" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="347" spans="2:7" s="10" customFormat="1" outlineLevel="1">
@@ -13840,7 +14353,7 @@
         <v>462</v>
       </c>
       <c r="G347" s="10" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="348" spans="2:7" outlineLevel="1">
@@ -13960,7 +14473,7 @@
     </row>
     <row r="371" spans="2:3" outlineLevel="1">
       <c r="C371" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="372" spans="2:3" outlineLevel="1">
@@ -14060,7 +14573,7 @@
     </row>
     <row r="391" spans="2:8" outlineLevel="1">
       <c r="D391" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="392" spans="2:8" outlineLevel="1">
@@ -14090,18 +14603,18 @@
     </row>
     <row r="397" spans="2:8" outlineLevel="1">
       <c r="E397" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="H397" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="398" spans="2:8" outlineLevel="1">
       <c r="E398" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="H398" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="399" spans="2:8" outlineLevel="1">
@@ -15956,27 +16469,27 @@
     </row>
     <row r="769" spans="2:2">
       <c r="B769" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="770" spans="2:2">
       <c r="B770" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="771" spans="2:2">
       <c r="B771" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="772" spans="2:2">
       <c r="B772" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="773" spans="2:2">
       <c r="B773" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="774" spans="2:2" hidden="1" outlineLevel="1">
@@ -16159,7 +16672,7 @@
         <v>900</v>
       </c>
       <c r="G809" s="10" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="810" spans="2:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
@@ -16167,7 +16680,7 @@
         <v>901</v>
       </c>
       <c r="G810" s="10" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="811" spans="2:7" hidden="1" outlineLevel="1">
@@ -16300,7 +16813,7 @@
         <v>927</v>
       </c>
       <c r="G836" s="10" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="837" spans="2:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
@@ -16308,149 +16821,149 @@
         <v>928</v>
       </c>
       <c r="G837" s="10" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="838" spans="2:7" collapsed="1">
       <c r="B838" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="839" spans="2:7">
       <c r="B839" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="840" spans="2:7">
       <c r="B840" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="841" spans="2:7">
       <c r="B841" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="842" spans="2:7">
       <c r="C842" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="843" spans="2:7" s="10" customFormat="1" outlineLevel="1">
       <c r="D843" s="10" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="F843" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="844" spans="2:7" s="10" customFormat="1" outlineLevel="1">
       <c r="D844" s="10" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="F844" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="845" spans="2:7" s="10" customFormat="1" outlineLevel="1">
       <c r="D845" s="10" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="F845" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="846" spans="2:7" s="10" customFormat="1" outlineLevel="1">
       <c r="D846" s="10" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="F846" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="847" spans="2:7" s="10" customFormat="1" outlineLevel="1">
       <c r="D847" s="10" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="F847" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="848" spans="2:7" s="10" customFormat="1" outlineLevel="1">
       <c r="D848" s="10" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="F848" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="849" spans="2:8" outlineLevel="1">
       <c r="B849" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="850" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D850" s="10" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="F850" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="851" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D851" s="10" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="F851" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="852" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D852" s="10" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="H852" s="10" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="853" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D853" s="10" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="H853" s="10" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="854" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D854" s="10" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="H854" s="10" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="855" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D855" s="10" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="F855" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="856" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D856" s="10" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="H856" s="10" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="857" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D857" s="10" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="H857" s="10" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="858" spans="2:8" outlineLevel="1">
@@ -16580,10 +17093,10 @@
     </row>
     <row r="883" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D883" s="10" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="H883" s="10" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="884" spans="2:8" outlineLevel="1">
@@ -16593,10 +17106,10 @@
     </row>
     <row r="885" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D885" s="10" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="H885" s="10" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="886" spans="2:8" outlineLevel="1">
@@ -16636,34 +17149,34 @@
     </row>
     <row r="893" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D893" s="10" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="H893" s="10" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="894" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D894" s="10" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="H894" s="10" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="895" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D895" s="10" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="H895" s="10" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="896" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D896" s="10" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="H896" s="10" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="897" spans="2:8" outlineLevel="1">
@@ -16708,10 +17221,10 @@
     </row>
     <row r="905" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D905" s="10" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="H905" s="10" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="906" spans="2:8" outlineLevel="1">
@@ -16781,26 +17294,26 @@
     </row>
     <row r="919" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D919" s="10" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="H919" s="10" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="920" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D920" s="10" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="H920" s="10" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="921" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D921" s="10" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="H921" s="10" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="922" spans="2:8" outlineLevel="1">
@@ -16840,18 +17353,18 @@
     </row>
     <row r="929" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D929" s="10" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="H929" s="10" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="930" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D930" s="10" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="H930" s="10" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="931" spans="2:8" outlineLevel="1">
@@ -17181,10 +17694,10 @@
     </row>
     <row r="996" spans="2:7" s="10" customFormat="1" outlineLevel="1">
       <c r="D996" s="10" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="G996" s="10" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="997" spans="2:7" outlineLevel="1">
@@ -17399,7 +17912,7 @@
         <v>1094</v>
       </c>
       <c r="G1036" s="10" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="1037" spans="2:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
@@ -17407,7 +17920,7 @@
         <v>1095</v>
       </c>
       <c r="G1037" s="10" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="1038" spans="2:7" hidden="1" outlineLevel="1">
@@ -18972,7 +19485,7 @@
     </row>
     <row r="1350" spans="2:8">
       <c r="C1350" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1351" spans="2:8" outlineLevel="1">
@@ -18997,26 +19510,26 @@
     </row>
     <row r="1355" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D1355" s="10" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="H1355" s="10" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1356" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D1356" s="10" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="H1356" s="10" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1357" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D1357" s="10" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="H1357" s="10" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1358" spans="2:8" outlineLevel="1">
@@ -19046,58 +19559,58 @@
     </row>
     <row r="1363" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D1363" s="10" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="H1363" s="10" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1364" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D1364" s="10" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="H1364" s="10" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1365" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D1365" s="10" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="H1365" s="10" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1366" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D1366" s="10" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="H1366" s="10" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1367" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D1367" s="10" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="H1367" s="10" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1368" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D1368" s="10" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="H1368" s="10" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1369" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D1369" s="10" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="H1369" s="10" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1370" spans="2:8" outlineLevel="1">
@@ -19117,10 +19630,10 @@
     </row>
     <row r="1373" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D1373" s="10" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="H1373" s="10" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1374" spans="2:8" outlineLevel="1">
@@ -19130,10 +19643,10 @@
     </row>
     <row r="1375" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D1375" s="10" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="H1375" s="10" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1376" spans="2:8" outlineLevel="1">
@@ -19148,31 +19661,31 @@
     </row>
     <row r="1378" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D1378" s="10" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="H1378" s="10" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1379" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D1379" s="10" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="H1379" s="10" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1380" spans="2:8" outlineLevel="1">
       <c r="B1380" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="1381" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D1381" s="10" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="H1381" s="10" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1382" spans="2:8" outlineLevel="1">
@@ -19217,26 +19730,26 @@
     </row>
     <row r="1390" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D1390" s="10" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="H1390" s="10" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1391" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D1391" s="10" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="H1391" s="10" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1392" spans="2:8" s="10" customFormat="1" outlineLevel="1">
       <c r="D1392" s="10" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="H1392" s="10" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1393" spans="2:2">
